--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>customer</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Miss</t>
   </si>
   <si>
-    <t>865360920V</t>
-  </si>
-  <si>
     <t>Lilani</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>300/A</t>
+  </si>
+  <si>
+    <t>Rajapihilla</t>
+  </si>
+  <si>
+    <t>865361920V</t>
   </si>
 </sst>
 </file>
@@ -412,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -473,18 +476,21 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="1">
         <v>71463764377</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>customer</t>
   </si>
@@ -78,7 +78,88 @@
     <t>Rajapihilla</t>
   </si>
   <si>
-    <t>865361920V</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>car_number</t>
+  </si>
+  <si>
+    <t>vehicle_type</t>
+  </si>
+  <si>
+    <t>vehicle_make</t>
+  </si>
+  <si>
+    <t>vehicle_model</t>
+  </si>
+  <si>
+    <t>seat_capacity</t>
+  </si>
+  <si>
+    <t>YOM</t>
+  </si>
+  <si>
+    <t>vehicle_usage</t>
+  </si>
+  <si>
+    <t>insured_amount</t>
+  </si>
+  <si>
+    <t>driving_exp</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>package_type</t>
+  </si>
+  <si>
+    <t>voluntary_excess</t>
+  </si>
+  <si>
+    <t>NCD</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>KR-9691</t>
+  </si>
+  <si>
+    <t>Passenger Car</t>
+  </si>
+  <si>
+    <t>PERODUA</t>
+  </si>
+  <si>
+    <t>AMIZHR</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Allianz Standard Package</t>
+  </si>
+  <si>
+    <t>867361920V</t>
+  </si>
+  <si>
+    <t>Hiring</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>60%</t>
   </si>
 </sst>
 </file>
@@ -114,9 +195,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,18 +500,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="18" width="18.28515625" style="1"/>
+    <col min="19" max="20" width="18.28515625" style="3"/>
+    <col min="21" max="22" width="18.28515625" style="1"/>
+    <col min="23" max="23" width="18.28515625" style="3"/>
+    <col min="24" max="24" width="18.28515625" style="1"/>
+    <col min="25" max="25" width="29.85546875" style="1" customWidth="1"/>
+    <col min="26" max="27" width="18.28515625" style="3"/>
+    <col min="28" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +558,50 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -476,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -492,6 +628,48 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>customer</t>
   </si>
@@ -160,6 +160,45 @@
   </si>
   <si>
     <t>60%</t>
+  </si>
+  <si>
+    <t>Chandrika</t>
+  </si>
+  <si>
+    <t>Kumaratunga</t>
+  </si>
+  <si>
+    <t>4560/A</t>
+  </si>
+  <si>
+    <t>Attanagalla</t>
+  </si>
+  <si>
+    <t>KR-9697</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Suzuki Wagon R &amp; Stingray</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>UR</t>
   </si>
 </sst>
 </file>
@@ -500,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -670,6 +709,77 @@
       </c>
       <c r="AA2" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>customer</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Individual</t>
   </si>
   <si>
-    <t>T220-Prepod</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>WP</t>
   </si>
   <si>
-    <t>KR-9691</t>
-  </si>
-  <si>
     <t>Passenger Car</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>Suzuki Wagon R &amp; Stingray</t>
   </si>
   <si>
@@ -199,6 +190,120 @@
   </si>
   <si>
     <t>UR</t>
+  </si>
+  <si>
+    <t>T221-Preprod</t>
+  </si>
+  <si>
+    <t>KR-9699</t>
+  </si>
+  <si>
+    <t>817361920V</t>
+  </si>
+  <si>
+    <t>817661920V</t>
+  </si>
+  <si>
+    <t>KR-9602</t>
+  </si>
+  <si>
+    <t>KR-9604</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>Moratuwa</t>
+  </si>
+  <si>
+    <t>Ratmalana</t>
+  </si>
+  <si>
+    <t>Lasith</t>
+  </si>
+  <si>
+    <t>Malinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>Sankakkara</t>
+  </si>
+  <si>
+    <t>Mahela</t>
+  </si>
+  <si>
+    <t>Jayawardana</t>
+  </si>
+  <si>
+    <t>Arjuna</t>
+  </si>
+  <si>
+    <t>Ranatunga</t>
+  </si>
+  <si>
+    <t>Maithripala</t>
+  </si>
+  <si>
+    <t>Sirisena</t>
+  </si>
+  <si>
+    <t>817621920V</t>
+  </si>
+  <si>
+    <t>817661320V</t>
+  </si>
+  <si>
+    <t>817461920V</t>
+  </si>
+  <si>
+    <t>KR-9603</t>
+  </si>
+  <si>
+    <t>KR-9605</t>
+  </si>
+  <si>
+    <t>KR-9606</t>
+  </si>
+  <si>
+    <t>817491920V</t>
+  </si>
+  <si>
+    <t>Sanath</t>
+  </si>
+  <si>
+    <t>KR-9607</t>
+  </si>
+  <si>
+    <t>Maount Lavinia</t>
+  </si>
+  <si>
+    <t>Kalutar</t>
+  </si>
+  <si>
+    <t>Matara</t>
+  </si>
+  <si>
+    <t>Jaffna</t>
+  </si>
+  <si>
+    <t>School Bus Package</t>
+  </si>
+  <si>
+    <t>Hiring Dual Purpose Leasing</t>
+  </si>
+  <si>
+    <t>Brand New Part</t>
+  </si>
+  <si>
+    <t>Rental</t>
   </si>
 </sst>
 </file>
@@ -539,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -598,46 +703,46 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -645,70 +750,70 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1">
         <v>71463764377</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V2" s="2">
         <v>2300000</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -716,70 +821,406 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1">
         <v>71463764377</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="V3" s="2">
         <v>4500000</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>57</v>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1">
+        <v>71463764377</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>customer</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Rental</t>
+  </si>
+  <si>
+    <t>policy_start_date</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -658,11 +664,11 @@
     <col min="23" max="23" width="18.28515625" style="3"/>
     <col min="24" max="24" width="18.28515625" style="1"/>
     <col min="25" max="25" width="29.85546875" style="1" customWidth="1"/>
-    <col min="26" max="27" width="18.28515625" style="3"/>
-    <col min="28" max="16384" width="18.28515625" style="1"/>
+    <col min="26" max="28" width="18.28515625" style="3"/>
+    <col min="29" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,8 +750,11 @@
       <c r="AA1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -815,8 +824,11 @@
       <c r="AA2" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="AB2" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -886,8 +898,11 @@
       <c r="AA3" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="AB3" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -942,8 +957,11 @@
       <c r="AA4" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AB4" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,8 +1016,11 @@
       <c r="AA5" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AB5" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,8 +1075,11 @@
       <c r="AA6" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AB6" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,8 +1134,11 @@
       <c r="AA7" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AB7" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1166,8 +1193,11 @@
       <c r="AA8" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AB8" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1221,10 +1251,14 @@
       </c>
       <c r="AA9" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/test_data_sheet.xlsx
+++ b/src/main/java/Resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>customer</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Individual</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
     <t>Lilani</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Allianz Standard Package</t>
   </si>
   <si>
-    <t>867361920V</t>
-  </si>
-  <si>
     <t>Hiring</t>
   </si>
   <si>
@@ -189,21 +183,12 @@
     <t>5000</t>
   </si>
   <si>
-    <t>UR</t>
-  </si>
-  <si>
     <t>T221-Preprod</t>
   </si>
   <si>
     <t>KR-9699</t>
   </si>
   <si>
-    <t>817361920V</t>
-  </si>
-  <si>
-    <t>817661920V</t>
-  </si>
-  <si>
     <t>KR-9602</t>
   </si>
   <si>
@@ -255,15 +240,6 @@
     <t>Sirisena</t>
   </si>
   <si>
-    <t>817621920V</t>
-  </si>
-  <si>
-    <t>817661320V</t>
-  </si>
-  <si>
-    <t>817461920V</t>
-  </si>
-  <si>
     <t>KR-9603</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
     <t>KR-9606</t>
   </si>
   <si>
-    <t>817491920V</t>
-  </si>
-  <si>
     <t>Sanath</t>
   </si>
   <si>
@@ -310,6 +283,51 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>Miss.</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>mandatory_documents</t>
+  </si>
+  <si>
+    <t>CR*</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CR*,Manual Cover note*</t>
+  </si>
+  <si>
+    <t>CR111*</t>
+  </si>
+  <si>
+    <t>867365920V</t>
+  </si>
+  <si>
+    <t>867091920V</t>
+  </si>
+  <si>
+    <t>817360120V</t>
+  </si>
+  <si>
+    <t>817601910V</t>
+  </si>
+  <si>
+    <t>817628020V</t>
+  </si>
+  <si>
+    <t>810961320V</t>
+  </si>
+  <si>
+    <t>817460020V</t>
+  </si>
+  <si>
+    <t>817091900V</t>
   </si>
 </sst>
 </file>
@@ -650,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -665,10 +683,11 @@
     <col min="24" max="24" width="18.28515625" style="1"/>
     <col min="25" max="25" width="29.85546875" style="1" customWidth="1"/>
     <col min="26" max="28" width="18.28515625" style="3"/>
-    <col min="29" max="16384" width="18.28515625" style="1"/>
+    <col min="29" max="29" width="26" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,551 +728,578 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="1">
         <v>71463764377</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V2" s="2">
         <v>2300000</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AB2" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>71463764377</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="V3" s="2">
         <v>4500000</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1">
         <v>71463764377</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V4" s="2">
         <v>1000000</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1">
         <v>71463764377</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V5" s="2">
         <v>1200000</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1">
         <v>71463764377</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="V6" s="2">
         <v>1200000</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AA6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1">
         <v>71463764377</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V7" s="2">
         <v>1200000</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1">
         <v>71463764377</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V8" s="2">
         <v>1200000</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AA8" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1">
         <v>71463764377</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="V9" s="2">
         <v>1200000</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AA9" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
